--- a/2017-2018/SKP_Hatala_2017_desember.xlsx
+++ b/2017-2018/SKP_Hatala_2017_desember.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="19440" windowHeight="7890" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="19440" windowHeight="7890" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT DATA" sheetId="3" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="PERILAKU  2,3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1766,9 +1767,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,6 +1898,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1936,6 +1937,111 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1981,110 +2087,41 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2092,9 +2129,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2116,39 +2150,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2200,6 +2201,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,15 +2282,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2250,48 +2293,6 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3323,7 +3324,7 @@
       <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="157" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3332,7 +3333,7 @@
       <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="158" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3341,7 +3342,7 @@
       <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="157" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3430,7 +3431,7 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.92" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3438,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3879,7 +3880,7 @@
     <mergeCell ref="H22:J22"/>
   </mergeCells>
   <pageMargins left="0.92" right="0.25" top="0.78" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3928,34 +3929,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
     </row>
     <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" thickBot="1">
       <c r="A3" s="2"/>
@@ -3974,22 +3975,22 @@
       <c r="A4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="256"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="239"/>
       <c r="E4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="249" t="s">
+      <c r="F4" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="251"/>
+      <c r="G4" s="233"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="234"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="71">
@@ -3998,25 +3999,25 @@
       <c r="B5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="252" t="str">
+      <c r="C5" s="235" t="str">
         <f>'INPUT DATA'!C10</f>
         <v>Marceau A.F. Haurissa, S.T., M.Eng</v>
       </c>
-      <c r="D5" s="253"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="73">
         <v>1</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="252" t="str">
+      <c r="G5" s="236"/>
+      <c r="H5" s="235" t="str">
         <f>'INPUT DATA'!C4</f>
         <v>Zulkarnaen Hatala, S.T., M.T</v>
       </c>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="255"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="238"/>
     </row>
     <row r="6" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="74">
@@ -4025,25 +4026,25 @@
       <c r="B6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="260" t="str">
+      <c r="C6" s="222" t="str">
         <f>'INPUT DATA'!C11</f>
         <v>196907261992031001</v>
       </c>
-      <c r="D6" s="261"/>
+      <c r="D6" s="223"/>
       <c r="E6" s="76">
         <v>2</v>
       </c>
-      <c r="F6" s="262" t="s">
+      <c r="F6" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="263"/>
-      <c r="H6" s="260" t="str">
+      <c r="G6" s="225"/>
+      <c r="H6" s="222" t="str">
         <f>'INPUT DATA'!C5</f>
         <v>197708192008121002</v>
       </c>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="265"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="227"/>
     </row>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="74">
@@ -4052,25 +4053,25 @@
       <c r="B7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="262" t="str">
+      <c r="C7" s="224" t="str">
         <f>'INPUT DATA'!C12</f>
         <v>Pembina Tingkat I, IV/b</v>
       </c>
-      <c r="D7" s="261"/>
+      <c r="D7" s="223"/>
       <c r="E7" s="76">
         <v>3</v>
       </c>
-      <c r="F7" s="262" t="s">
+      <c r="F7" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="262" t="str">
+      <c r="G7" s="225"/>
+      <c r="H7" s="224" t="str">
         <f>'INPUT DATA'!C6</f>
         <v>Penata Muda Tingkat I, III/b</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="267"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="229"/>
     </row>
     <row r="8" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="74">
@@ -4079,25 +4080,25 @@
       <c r="B8" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="262" t="str">
+      <c r="C8" s="224" t="str">
         <f>'INPUT DATA'!C13</f>
         <v>Ketua Jurusan Teknik Elektro</v>
       </c>
-      <c r="D8" s="263"/>
+      <c r="D8" s="225"/>
       <c r="E8" s="76">
         <v>4</v>
       </c>
-      <c r="F8" s="262" t="s">
+      <c r="F8" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="263"/>
-      <c r="H8" s="262" t="str">
+      <c r="G8" s="225"/>
+      <c r="H8" s="224" t="str">
         <f>'INPUT DATA'!C7</f>
         <v>Dosen</v>
       </c>
-      <c r="I8" s="266"/>
-      <c r="J8" s="266"/>
-      <c r="K8" s="267"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="229"/>
     </row>
     <row r="9" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="77">
@@ -4106,94 +4107,94 @@
       <c r="B9" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="257" t="str">
+      <c r="C9" s="219" t="str">
         <f>'INPUT DATA'!C14</f>
         <v>Politeknik Negeri Ambon</v>
       </c>
-      <c r="D9" s="268"/>
+      <c r="D9" s="230"/>
       <c r="E9" s="79">
         <v>5</v>
       </c>
-      <c r="F9" s="257" t="s">
+      <c r="F9" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="268"/>
-      <c r="H9" s="257" t="str">
+      <c r="G9" s="230"/>
+      <c r="H9" s="219" t="str">
         <f>'INPUT DATA'!C8</f>
         <v>Politeknik Negeri Ambon</v>
       </c>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="259"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="221"/>
     </row>
     <row r="10" spans="1:11" s="50" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="219" t="s">
+      <c r="A10" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="228" t="s">
+      <c r="B10" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="229"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="221" t="s">
+      <c r="C10" s="264"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="223" t="s">
+      <c r="F10" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="225"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="260"/>
     </row>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="220"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="226" t="s">
+      <c r="A11" s="255"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="227"/>
+      <c r="G11" s="262"/>
       <c r="H11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="226" t="s">
+      <c r="I11" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="227"/>
+      <c r="J11" s="262"/>
       <c r="K11" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="50" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A12" s="160">
+      <c r="A12" s="159">
         <v>1</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="236"/>
-      <c r="H12" s="236"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="237"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="243"/>
     </row>
     <row r="13" spans="1:11" s="50" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="82">
         <v>1</v>
       </c>
-      <c r="B13" s="238" t="s">
+      <c r="B13" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="239"/>
-      <c r="D13" s="240"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="246"/>
       <c r="E13" s="119">
         <v>3</v>
       </c>
@@ -4220,11 +4221,11 @@
       <c r="A14" s="82">
         <v>2</v>
       </c>
-      <c r="B14" s="238" t="s">
+      <c r="B14" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="239"/>
-      <c r="D14" s="240"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="246"/>
       <c r="E14" s="119">
         <v>5</v>
       </c>
@@ -4251,11 +4252,11 @@
       <c r="A15" s="82">
         <v>3</v>
       </c>
-      <c r="B15" s="238" t="s">
+      <c r="B15" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="239"/>
-      <c r="D15" s="240"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="246"/>
       <c r="E15" s="124">
         <v>3</v>
       </c>
@@ -4282,11 +4283,11 @@
       <c r="A16" s="82">
         <v>4</v>
       </c>
-      <c r="B16" s="238" t="s">
+      <c r="B16" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="246"/>
       <c r="E16" s="124">
         <v>5</v>
       </c>
@@ -4310,50 +4311,50 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="50" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="161">
+      <c r="A17" s="160">
         <v>2</v>
       </c>
-      <c r="B17" s="245" t="s">
+      <c r="B17" s="251" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="246"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="247"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="252"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="252"/>
+      <c r="K17" s="253"/>
     </row>
     <row r="18" spans="1:11" s="50" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A18" s="162">
+      <c r="A18" s="161">
         <v>1</v>
       </c>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="163">
+      <c r="C18" s="248"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="162">
         <v>1</v>
       </c>
-      <c r="F18" s="164">
+      <c r="F18" s="163">
         <v>1</v>
       </c>
-      <c r="G18" s="165" t="s">
+      <c r="G18" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="166">
+      <c r="H18" s="165">
         <v>1</v>
       </c>
-      <c r="I18" s="164">
+      <c r="I18" s="163">
         <v>12</v>
       </c>
-      <c r="J18" s="167" t="s">
+      <c r="J18" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="168">
+      <c r="K18" s="167">
         <v>0</v>
       </c>
     </row>
@@ -4377,30 +4378,30 @@
       <c r="D20" s="89"/>
       <c r="E20" s="89"/>
       <c r="F20" s="89"/>
-      <c r="G20" s="234" t="s">
+      <c r="G20" s="240" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
+      <c r="H20" s="240"/>
+      <c r="I20" s="240"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="240"/>
     </row>
     <row r="21" spans="1:11" s="50" customFormat="1" ht="15">
-      <c r="A21" s="234" t="s">
+      <c r="A21" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="234"/>
-      <c r="C21" s="234"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="240"/>
       <c r="D21" s="90"/>
       <c r="E21" s="91"/>
       <c r="F21" s="92"/>
-      <c r="G21" s="234" t="s">
+      <c r="G21" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
+      <c r="H21" s="240"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="240"/>
+      <c r="K21" s="240"/>
     </row>
     <row r="22" spans="1:11" s="50" customFormat="1" ht="15">
       <c r="A22" s="89"/>
@@ -4442,42 +4443,42 @@
       <c r="K24" s="89"/>
     </row>
     <row r="25" spans="1:11" s="50" customFormat="1" ht="15">
-      <c r="A25" s="244" t="str">
+      <c r="A25" s="250" t="str">
         <f>C5</f>
         <v>Marceau A.F. Haurissa, S.T., M.Eng</v>
       </c>
-      <c r="B25" s="244"/>
-      <c r="C25" s="244"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
       <c r="F25" s="94"/>
-      <c r="G25" s="244" t="str">
+      <c r="G25" s="250" t="str">
         <f>H5</f>
         <v>Zulkarnaen Hatala, S.T., M.T</v>
       </c>
-      <c r="H25" s="244"/>
-      <c r="I25" s="244"/>
-      <c r="J25" s="244"/>
-      <c r="K25" s="244"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="250"/>
     </row>
     <row r="26" spans="1:11" s="50" customFormat="1" ht="15">
-      <c r="A26" s="234" t="str">
+      <c r="A26" s="240" t="str">
         <f>"NIP. "&amp;C6&amp;""</f>
         <v>NIP. 196907261992031001</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="240"/>
       <c r="D26" s="91"/>
       <c r="E26" s="91"/>
       <c r="F26" s="89"/>
-      <c r="G26" s="234" t="str">
+      <c r="G26" s="240" t="str">
         <f>"NIP. "&amp;H6&amp;""</f>
         <v>NIP. 197708192008121002</v>
       </c>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="234"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="240"/>
+      <c r="K26" s="240"/>
     </row>
     <row r="27" spans="1:11" s="48" customFormat="1" ht="15"/>
     <row r="28" spans="1:11" ht="13.5">
@@ -4508,25 +4509,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B10:D11"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="G20:K20"/>
@@ -4541,12 +4529,25 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:K17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.25" top="0.25" bottom="0.18" header="0.19" footer="0.13"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
@@ -4557,14 +4558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
@@ -4590,193 +4591,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="279"/>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="279"/>
-      <c r="V1" s="279"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="279"/>
-      <c r="U2" s="279"/>
-      <c r="V2" s="279"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
     </row>
     <row r="3" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A3" s="280"/>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="280"/>
-      <c r="U3" s="280"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
+      <c r="N3" s="270"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="270"/>
+      <c r="Q3" s="270"/>
+      <c r="R3" s="270"/>
+      <c r="S3" s="270"/>
+      <c r="T3" s="270"/>
+      <c r="U3" s="270"/>
     </row>
     <row r="4" spans="1:22" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="271" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="281"/>
-      <c r="T4" s="281"/>
-      <c r="U4" s="281"/>
-      <c r="V4" s="281"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="271"/>
+      <c r="L4" s="271"/>
+      <c r="M4" s="271"/>
+      <c r="N4" s="271"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="271"/>
+      <c r="Q4" s="271"/>
+      <c r="R4" s="271"/>
+      <c r="S4" s="271"/>
+      <c r="T4" s="271"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="271"/>
     </row>
     <row r="5" spans="1:22" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="284" t="s">
+      <c r="C5" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="285" t="s">
+      <c r="D5" s="276" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285" t="s">
+      <c r="E5" s="276"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="276"/>
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="285" t="s">
+      <c r="K5" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="285"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="284" t="s">
+      <c r="L5" s="276"/>
+      <c r="M5" s="276"/>
+      <c r="N5" s="276"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="276"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="287" t="s">
+      <c r="V5" s="278" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="95" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="271"/>
-      <c r="C6" s="271"/>
-      <c r="D6" s="289" t="s">
+      <c r="A6" s="273"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="289"/>
-      <c r="F6" s="147" t="s">
+      <c r="E6" s="280"/>
+      <c r="F6" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="289" t="s">
+      <c r="G6" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="289"/>
-      <c r="I6" s="147" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="286"/>
-      <c r="K6" s="289" t="s">
+      <c r="J6" s="277"/>
+      <c r="K6" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="289"/>
-      <c r="M6" s="147" t="s">
+      <c r="L6" s="280"/>
+      <c r="M6" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="289" t="s">
+      <c r="N6" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="289"/>
-      <c r="P6" s="147" t="s">
+      <c r="O6" s="280"/>
+      <c r="P6" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="147" t="s">
+      <c r="R6" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="147" t="s">
+      <c r="T6" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="271"/>
-      <c r="V6" s="288"/>
+      <c r="U6" s="275"/>
+      <c r="V6" s="279"/>
     </row>
     <row r="7" spans="1:22" s="111" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="96">
@@ -4788,34 +4789,34 @@
       <c r="C7" s="97">
         <v>3</v>
       </c>
-      <c r="D7" s="274">
+      <c r="D7" s="285">
         <v>4</v>
       </c>
-      <c r="E7" s="274"/>
+      <c r="E7" s="285"/>
       <c r="F7" s="97">
         <v>5</v>
       </c>
-      <c r="G7" s="274">
+      <c r="G7" s="285">
         <v>6</v>
       </c>
-      <c r="H7" s="274"/>
+      <c r="H7" s="285"/>
       <c r="I7" s="97">
         <v>7</v>
       </c>
       <c r="J7" s="97">
         <v>8</v>
       </c>
-      <c r="K7" s="274">
+      <c r="K7" s="285">
         <v>9</v>
       </c>
-      <c r="L7" s="274"/>
+      <c r="L7" s="285"/>
       <c r="M7" s="97">
         <v>10</v>
       </c>
-      <c r="N7" s="274">
+      <c r="N7" s="285">
         <v>11</v>
       </c>
-      <c r="O7" s="274"/>
+      <c r="O7" s="285"/>
       <c r="P7" s="97">
         <v>12</v>
       </c>
@@ -4831,32 +4832,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="95" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A8" s="169">
+      <c r="A8" s="168">
         <v>1</v>
       </c>
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="277"/>
-      <c r="D8" s="277"/>
-      <c r="E8" s="277"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="277"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="277"/>
-      <c r="N8" s="277"/>
-      <c r="O8" s="277"/>
-      <c r="P8" s="277"/>
-      <c r="Q8" s="277"/>
-      <c r="R8" s="277"/>
-      <c r="S8" s="277"/>
-      <c r="T8" s="277"/>
-      <c r="U8" s="277"/>
-      <c r="V8" s="278"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="288"/>
+      <c r="L8" s="288"/>
+      <c r="M8" s="288"/>
+      <c r="N8" s="288"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="288"/>
+      <c r="Q8" s="288"/>
+      <c r="R8" s="288"/>
+      <c r="S8" s="288"/>
+      <c r="T8" s="288"/>
+      <c r="U8" s="288"/>
+      <c r="V8" s="289"/>
     </row>
     <row r="9" spans="1:22" s="95" customFormat="1" ht="28.5" customHeight="1">
       <c r="A9" s="99">
@@ -5203,32 +5204,32 @@
       </c>
     </row>
     <row r="13" spans="1:22" s="95" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A13" s="145">
+      <c r="A13" s="206">
         <v>2</v>
       </c>
-      <c r="B13" s="276" t="s">
+      <c r="B13" s="287" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="277"/>
-      <c r="I13" s="277"/>
-      <c r="J13" s="277"/>
-      <c r="K13" s="277"/>
-      <c r="L13" s="277"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="277"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="277"/>
-      <c r="S13" s="277"/>
-      <c r="T13" s="277"/>
-      <c r="U13" s="277"/>
-      <c r="V13" s="278"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="288"/>
+      <c r="N13" s="288"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="288"/>
+      <c r="Q13" s="288"/>
+      <c r="R13" s="288"/>
+      <c r="S13" s="288"/>
+      <c r="T13" s="288"/>
+      <c r="U13" s="288"/>
+      <c r="V13" s="289"/>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="23.1" customHeight="1">
       <c r="A14" s="99">
@@ -5317,56 +5318,56 @@
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A15" s="270" t="s">
+      <c r="A15" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="271"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="271"/>
-      <c r="E15" s="271"/>
-      <c r="F15" s="271"/>
-      <c r="G15" s="271"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="271"/>
-      <c r="M15" s="271"/>
-      <c r="N15" s="271"/>
-      <c r="O15" s="271"/>
-      <c r="P15" s="271"/>
-      <c r="Q15" s="271"/>
-      <c r="R15" s="271"/>
-      <c r="S15" s="271"/>
-      <c r="T15" s="271"/>
-      <c r="U15" s="271"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="275"/>
+      <c r="I15" s="275"/>
+      <c r="J15" s="275"/>
+      <c r="K15" s="275"/>
+      <c r="L15" s="275"/>
+      <c r="M15" s="275"/>
+      <c r="N15" s="275"/>
+      <c r="O15" s="275"/>
+      <c r="P15" s="275"/>
+      <c r="Q15" s="275"/>
+      <c r="R15" s="275"/>
+      <c r="S15" s="275"/>
+      <c r="T15" s="275"/>
+      <c r="U15" s="275"/>
       <c r="V15" s="110">
         <f>(V9+V10+V11+V12+V14)/8</f>
         <v>84.583333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="95" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A16" s="272"/>
-      <c r="B16" s="273"/>
-      <c r="C16" s="273"/>
-      <c r="D16" s="273"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="273"/>
-      <c r="G16" s="273"/>
-      <c r="H16" s="273"/>
-      <c r="I16" s="273"/>
-      <c r="J16" s="273"/>
-      <c r="K16" s="273"/>
-      <c r="L16" s="273"/>
-      <c r="M16" s="273"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="273"/>
-      <c r="P16" s="273"/>
-      <c r="Q16" s="273"/>
-      <c r="R16" s="273"/>
-      <c r="S16" s="273"/>
-      <c r="T16" s="273"/>
-      <c r="U16" s="273"/>
+      <c r="A16" s="283"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="284"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="284"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="284"/>
+      <c r="R16" s="284"/>
+      <c r="S16" s="284"/>
+      <c r="T16" s="284"/>
+      <c r="U16" s="284"/>
       <c r="V16" s="129" t="str">
         <f>IF(V15&lt;=50,"(Buruk)",IF(V15&lt;=60,"(Sedang)",IF(V15&lt;=75,"(Cukup)",IF(V15&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
@@ -5409,65 +5410,65 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="269" t="s">
+      <c r="M18" s="281" t="s">
         <v>118</v>
       </c>
-      <c r="N18" s="269"/>
-      <c r="O18" s="269"/>
-      <c r="P18" s="269"/>
-      <c r="Q18" s="269"/>
-      <c r="R18" s="269"/>
-      <c r="S18" s="269"/>
-      <c r="T18" s="269"/>
-      <c r="U18" s="269"/>
-      <c r="V18" s="269"/>
+      <c r="N18" s="281"/>
+      <c r="O18" s="281"/>
+      <c r="P18" s="281"/>
+      <c r="Q18" s="281"/>
+      <c r="R18" s="281"/>
+      <c r="S18" s="281"/>
+      <c r="T18" s="281"/>
+      <c r="U18" s="281"/>
+      <c r="V18" s="281"/>
     </row>
     <row r="19" spans="1:22" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="M19" s="269" t="s">
+      <c r="M19" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="269"/>
-      <c r="O19" s="269"/>
-      <c r="P19" s="269"/>
-      <c r="Q19" s="269"/>
-      <c r="R19" s="269"/>
-      <c r="S19" s="269"/>
-      <c r="T19" s="269"/>
-      <c r="U19" s="269"/>
-      <c r="V19" s="269"/>
+      <c r="N19" s="281"/>
+      <c r="O19" s="281"/>
+      <c r="P19" s="281"/>
+      <c r="Q19" s="281"/>
+      <c r="R19" s="281"/>
+      <c r="S19" s="281"/>
+      <c r="T19" s="281"/>
+      <c r="U19" s="281"/>
+      <c r="V19" s="281"/>
     </row>
     <row r="20" spans="1:22" s="50" customFormat="1" ht="15"/>
     <row r="21" spans="1:22" s="50" customFormat="1" ht="15"/>
     <row r="22" spans="1:22" s="50" customFormat="1" ht="15"/>
     <row r="23" spans="1:22" s="50" customFormat="1" ht="8.25" customHeight="1">
-      <c r="M23" s="275" t="str">
+      <c r="M23" s="286" t="str">
         <f>'INPUT DATA'!C10</f>
         <v>Marceau A.F. Haurissa, S.T., M.Eng</v>
       </c>
-      <c r="N23" s="275"/>
-      <c r="O23" s="275"/>
-      <c r="P23" s="275"/>
-      <c r="Q23" s="275"/>
-      <c r="R23" s="275"/>
-      <c r="S23" s="275"/>
-      <c r="T23" s="275"/>
-      <c r="U23" s="275"/>
-      <c r="V23" s="275"/>
+      <c r="N23" s="286"/>
+      <c r="O23" s="286"/>
+      <c r="P23" s="286"/>
+      <c r="Q23" s="286"/>
+      <c r="R23" s="286"/>
+      <c r="S23" s="286"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="286"/>
+      <c r="V23" s="286"/>
     </row>
     <row r="24" spans="1:22" s="50" customFormat="1" ht="15">
-      <c r="M24" s="269" t="str">
+      <c r="M24" s="281" t="str">
         <f>"NIP."&amp;'INPUT DATA'!C11&amp;""</f>
         <v>NIP.196907261992031001</v>
       </c>
-      <c r="N24" s="269"/>
-      <c r="O24" s="269"/>
-      <c r="P24" s="269"/>
-      <c r="Q24" s="269"/>
-      <c r="R24" s="269"/>
-      <c r="S24" s="269"/>
-      <c r="T24" s="269"/>
-      <c r="U24" s="269"/>
-      <c r="V24" s="269"/>
+      <c r="N24" s="281"/>
+      <c r="O24" s="281"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="281"/>
+      <c r="U24" s="281"/>
+      <c r="V24" s="281"/>
     </row>
     <row r="25" spans="1:22" s="50" customFormat="1" ht="15">
       <c r="A25" s="1"/>
@@ -5523,6 +5524,17 @@
     <row r="27" spans="1:22" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M24:V24"/>
+    <mergeCell ref="A15:U16"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="M19:V19"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="M23:V23"/>
+    <mergeCell ref="B8:V8"/>
+    <mergeCell ref="B13:V13"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A3:U3"/>
@@ -5539,20 +5551,9 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="M24:V24"/>
-    <mergeCell ref="A15:U16"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="M19:V19"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="M23:V23"/>
-    <mergeCell ref="B8:V8"/>
-    <mergeCell ref="B13:V13"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.25" top="0.53" bottom="0.5" header="0.27" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5561,7 +5562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -6225,11 +6226,11 @@
       <c r="A3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="148" t="str">
+      <c r="B3" s="147" t="str">
         <f>'INPUT DATA'!C4</f>
         <v>Zulkarnaen Hatala, S.T., M.T</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -6772,10 +6773,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:J20"/>
+    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6830,32 +6831,32 @@
       <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="314" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
     </row>
     <row r="5" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="328"/>
-      <c r="C5" s="328"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
-      <c r="J5" s="328"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
     </row>
     <row r="6" spans="1:10" ht="12.95" customHeight="1">
       <c r="A6" s="19"/>
@@ -6880,364 +6881,364 @@
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="329" t="s">
+      <c r="H7" s="315" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="329"/>
-      <c r="J7" s="329"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
     </row>
     <row r="8" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="48"/>
-      <c r="H8" s="330" t="str">
+      <c r="H8" s="316" t="str">
         <f>COVER!A14</f>
         <v>Januari s/d Desember 2017</v>
       </c>
-      <c r="I8" s="330"/>
-      <c r="J8" s="330"/>
+      <c r="I8" s="316"/>
+      <c r="J8" s="316"/>
     </row>
     <row r="9" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A10" s="200"/>
-      <c r="B10" s="201" t="s">
+      <c r="A10" s="199"/>
+      <c r="B10" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="335" t="str">
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="311" t="str">
         <f>'INPUT DATA'!C4</f>
         <v>Zulkarnaen Hatala, S.T., M.T</v>
       </c>
-      <c r="H10" s="336"/>
-      <c r="I10" s="336"/>
-      <c r="J10" s="337"/>
+      <c r="H10" s="312"/>
+      <c r="I10" s="312"/>
+      <c r="J10" s="313"/>
     </row>
     <row r="11" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A11" s="200"/>
-      <c r="B11" s="202" t="s">
+      <c r="A11" s="199"/>
+      <c r="B11" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="335" t="str">
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="311" t="str">
         <f>'INPUT DATA'!C5</f>
         <v>197708192008121002</v>
       </c>
-      <c r="H11" s="336"/>
-      <c r="I11" s="336"/>
-      <c r="J11" s="337"/>
+      <c r="H11" s="312"/>
+      <c r="I11" s="312"/>
+      <c r="J11" s="313"/>
     </row>
     <row r="12" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A12" s="200"/>
-      <c r="B12" s="202" t="s">
+      <c r="A12" s="199"/>
+      <c r="B12" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="203" t="s">
+      <c r="C12" s="202" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="335" t="str">
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="311" t="str">
         <f>'INPUT DATA'!C6</f>
         <v>Penata Muda Tingkat I, III/b</v>
       </c>
-      <c r="H12" s="336"/>
-      <c r="I12" s="336"/>
-      <c r="J12" s="337"/>
+      <c r="H12" s="312"/>
+      <c r="I12" s="312"/>
+      <c r="J12" s="313"/>
     </row>
     <row r="13" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A13" s="200"/>
-      <c r="B13" s="202" t="s">
+      <c r="A13" s="199"/>
+      <c r="B13" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="332" t="str">
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="308" t="str">
         <f>'INPUT DATA'!C7</f>
         <v>Dosen</v>
       </c>
-      <c r="H13" s="333"/>
-      <c r="I13" s="333"/>
-      <c r="J13" s="334"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="310"/>
     </row>
     <row r="14" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A14" s="204"/>
-      <c r="B14" s="202" t="s">
+      <c r="A14" s="203"/>
+      <c r="B14" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="332" t="str">
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="308" t="str">
         <f>'INPUT DATA'!C8</f>
         <v>Politeknik Negeri Ambon</v>
       </c>
-      <c r="H14" s="333"/>
-      <c r="I14" s="333"/>
-      <c r="J14" s="334"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="310"/>
     </row>
     <row r="15" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="198" t="s">
+      <c r="B15" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
       <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A16" s="205"/>
-      <c r="B16" s="201" t="s">
+      <c r="A16" s="204"/>
+      <c r="B16" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="335" t="str">
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="311" t="str">
         <f>'INPUT DATA'!C10</f>
         <v>Marceau A.F. Haurissa, S.T., M.Eng</v>
       </c>
-      <c r="H16" s="336"/>
-      <c r="I16" s="336"/>
-      <c r="J16" s="337"/>
+      <c r="H16" s="312"/>
+      <c r="I16" s="312"/>
+      <c r="J16" s="313"/>
     </row>
     <row r="17" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A17" s="205"/>
-      <c r="B17" s="202" t="s">
+      <c r="A17" s="204"/>
+      <c r="B17" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="203" t="s">
+      <c r="C17" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="335" t="str">
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="311" t="str">
         <f>'INPUT DATA'!C11</f>
         <v>196907261992031001</v>
       </c>
-      <c r="H17" s="336"/>
-      <c r="I17" s="336"/>
-      <c r="J17" s="337"/>
+      <c r="H17" s="312"/>
+      <c r="I17" s="312"/>
+      <c r="J17" s="313"/>
     </row>
     <row r="18" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A18" s="205"/>
-      <c r="B18" s="202" t="s">
+      <c r="A18" s="204"/>
+      <c r="B18" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="202" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="332" t="str">
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="308" t="str">
         <f>'INPUT DATA'!C12</f>
         <v>Pembina Tingkat I, IV/b</v>
       </c>
-      <c r="H18" s="333"/>
-      <c r="I18" s="333"/>
-      <c r="J18" s="334"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="310"/>
     </row>
     <row r="19" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A19" s="205"/>
-      <c r="B19" s="202" t="s">
+      <c r="A19" s="204"/>
+      <c r="B19" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="203" t="s">
+      <c r="C19" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="332" t="str">
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="308" t="str">
         <f>'INPUT DATA'!C13</f>
         <v>Ketua Jurusan Teknik Elektro</v>
       </c>
-      <c r="H19" s="333"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="334"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="310"/>
     </row>
     <row r="20" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A20" s="206"/>
-      <c r="B20" s="202" t="s">
+      <c r="A20" s="205"/>
+      <c r="B20" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="203" t="s">
+      <c r="C20" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="332" t="str">
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="308" t="str">
         <f>'INPUT DATA'!C14</f>
         <v>Politeknik Negeri Ambon</v>
       </c>
-      <c r="H20" s="333"/>
-      <c r="I20" s="333"/>
-      <c r="J20" s="334"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="310"/>
     </row>
     <row r="21" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A21" s="197" t="s">
+      <c r="A21" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
       <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A22" s="200"/>
-      <c r="B22" s="201" t="s">
+      <c r="A22" s="199"/>
+      <c r="B22" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="199" t="s">
+      <c r="C22" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="335" t="str">
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="311" t="str">
         <f>'INPUT DATA'!C16</f>
         <v>Ir. Julius Buyang, M.T.</v>
       </c>
-      <c r="H22" s="336"/>
-      <c r="I22" s="336"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="312"/>
+      <c r="I22" s="312"/>
+      <c r="J22" s="313"/>
     </row>
     <row r="23" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A23" s="200"/>
-      <c r="B23" s="202" t="s">
+      <c r="A23" s="199"/>
+      <c r="B23" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="203" t="s">
+      <c r="C23" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="335" t="str">
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="311" t="str">
         <f>'INPUT DATA'!C17</f>
         <v>196006091988111001</v>
       </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="336"/>
-      <c r="J23" s="337"/>
+      <c r="H23" s="312"/>
+      <c r="I23" s="312"/>
+      <c r="J23" s="313"/>
     </row>
     <row r="24" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A24" s="200"/>
-      <c r="B24" s="202" t="s">
+      <c r="A24" s="199"/>
+      <c r="B24" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="C24" s="202" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="335" t="str">
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="311" t="str">
         <f>'INPUT DATA'!C18</f>
         <v>Pembina Utama Muda, IV/c</v>
       </c>
-      <c r="H24" s="336"/>
-      <c r="I24" s="336"/>
-      <c r="J24" s="337"/>
+      <c r="H24" s="312"/>
+      <c r="I24" s="312"/>
+      <c r="J24" s="313"/>
     </row>
     <row r="25" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A25" s="200"/>
-      <c r="B25" s="202" t="s">
+      <c r="A25" s="199"/>
+      <c r="B25" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="331" t="s">
+      <c r="C25" s="307" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="331"/>
-      <c r="E25" s="331"/>
-      <c r="F25" s="331"/>
-      <c r="G25" s="332" t="str">
+      <c r="D25" s="307"/>
+      <c r="E25" s="307"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="308" t="str">
         <f>'INPUT DATA'!C19</f>
         <v>Wakil Direktur Bidang Akademik</v>
       </c>
-      <c r="H25" s="333"/>
-      <c r="I25" s="333"/>
-      <c r="J25" s="334"/>
+      <c r="H25" s="309"/>
+      <c r="I25" s="309"/>
+      <c r="J25" s="310"/>
     </row>
     <row r="26" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A26" s="200"/>
-      <c r="B26" s="202" t="s">
+      <c r="A26" s="199"/>
+      <c r="B26" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="331" t="s">
+      <c r="C26" s="307" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="331"/>
-      <c r="E26" s="331"/>
-      <c r="F26" s="331"/>
-      <c r="G26" s="332" t="str">
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="308" t="str">
         <f>'INPUT DATA'!C20</f>
         <v>Politeknik Negeri Ambon</v>
       </c>
-      <c r="H26" s="333"/>
-      <c r="I26" s="333"/>
-      <c r="J26" s="334"/>
+      <c r="H26" s="309"/>
+      <c r="I26" s="309"/>
+      <c r="J26" s="310"/>
     </row>
     <row r="27" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A27" s="185" t="s">
+      <c r="A27" s="184" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="24" t="s">
@@ -7248,39 +7249,39 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="324" t="s">
+      <c r="H27" s="176"/>
+      <c r="I27" s="317" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="325"/>
+      <c r="J27" s="318"/>
     </row>
     <row r="28" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A28" s="178"/>
-      <c r="B28" s="311" t="s">
+      <c r="A28" s="177"/>
+      <c r="B28" s="327" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="312"/>
-      <c r="D28" s="312"/>
-      <c r="E28" s="312"/>
-      <c r="F28" s="180"/>
+      <c r="C28" s="328"/>
+      <c r="D28" s="328"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="179"/>
       <c r="G28" s="23">
         <f>CAPAIAN!V15</f>
         <v>84.583333333333329</v>
       </c>
-      <c r="H28" s="181" t="s">
+      <c r="H28" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="326">
+      <c r="I28" s="319">
         <f>G28*60%</f>
         <v>50.749999999999993</v>
       </c>
-      <c r="J28" s="327"/>
+      <c r="J28" s="320"/>
     </row>
     <row r="29" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A29" s="178"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="157"/>
+      <c r="A29" s="177"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
       <c r="E29" s="112" t="s">
         <v>60</v>
       </c>
@@ -7291,18 +7292,18 @@
         <f>CATATAN!F11</f>
         <v>76</v>
       </c>
-      <c r="H29" s="182" t="str">
+      <c r="H29" s="181" t="str">
         <f>IF(G29&lt;=50,"(Buruk)",IF(G29&lt;=60,"(Kurang)",IF(G29&lt;=75,"(Cukup)",IF(G29&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="I29" s="318"/>
-      <c r="J29" s="320"/>
+      <c r="I29" s="321"/>
+      <c r="J29" s="322"/>
     </row>
     <row r="30" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A30" s="178"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="A30" s="177"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="112" t="s">
         <v>58</v>
       </c>
@@ -7313,18 +7314,18 @@
         <f>CATATAN!F12</f>
         <v>76</v>
       </c>
-      <c r="H30" s="182" t="str">
+      <c r="H30" s="181" t="str">
         <f t="shared" ref="H30:H36" si="0">IF(G30&lt;=50,"(Buruk)",IF(G30&lt;=60,"(Kurang)",IF(G30&lt;=75,"(Cukup)",IF(G30&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="I30" s="318"/>
-      <c r="J30" s="320"/>
+      <c r="I30" s="321"/>
+      <c r="J30" s="322"/>
     </row>
     <row r="31" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A31" s="178"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="112" t="s">
         <v>56</v>
       </c>
@@ -7335,18 +7336,18 @@
         <f>CATATAN!F13</f>
         <v>90.25</v>
       </c>
-      <c r="H31" s="182" t="str">
+      <c r="H31" s="181" t="str">
         <f t="shared" si="0"/>
         <v>(Baik)</v>
       </c>
-      <c r="I31" s="318"/>
-      <c r="J31" s="320"/>
+      <c r="I31" s="321"/>
+      <c r="J31" s="322"/>
     </row>
     <row r="32" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A32" s="178"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="151"/>
+      <c r="A32" s="177"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
       <c r="E32" s="112" t="s">
         <v>54</v>
       </c>
@@ -7357,20 +7358,20 @@
         <f>CATATAN!F14</f>
         <v>76</v>
       </c>
-      <c r="H32" s="182" t="str">
+      <c r="H32" s="181" t="str">
         <f t="shared" si="0"/>
         <v>(Baik)</v>
       </c>
-      <c r="I32" s="318"/>
-      <c r="J32" s="320"/>
+      <c r="I32" s="321"/>
+      <c r="J32" s="322"/>
     </row>
     <row r="33" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A33" s="178"/>
-      <c r="B33" s="308" t="s">
+      <c r="A33" s="177"/>
+      <c r="B33" s="324" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="309"/>
-      <c r="D33" s="310"/>
+      <c r="C33" s="325"/>
+      <c r="D33" s="326"/>
       <c r="E33" s="112" t="s">
         <v>52</v>
       </c>
@@ -7381,36 +7382,36 @@
         <f>CATATAN!F15</f>
         <v>75.5</v>
       </c>
-      <c r="H33" s="182" t="str">
+      <c r="H33" s="181" t="str">
         <f t="shared" si="0"/>
         <v>(Baik)</v>
       </c>
-      <c r="I33" s="318"/>
-      <c r="J33" s="320"/>
+      <c r="I33" s="321"/>
+      <c r="J33" s="322"/>
     </row>
     <row r="34" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="151"/>
+      <c r="A34" s="177"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="112" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="195">
+      <c r="G34" s="194">
         <v>0</v>
       </c>
-      <c r="H34" s="182"/>
-      <c r="I34" s="318"/>
-      <c r="J34" s="320"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="321"/>
+      <c r="J34" s="322"/>
     </row>
     <row r="35" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A35" s="178"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="151"/>
+      <c r="A35" s="177"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150"/>
       <c r="E35" s="112" t="s">
         <v>135</v>
       </c>
@@ -7422,14 +7423,14 @@
         <v>393.75</v>
       </c>
       <c r="H35" s="113"/>
-      <c r="I35" s="318"/>
-      <c r="J35" s="320"/>
+      <c r="I35" s="321"/>
+      <c r="J35" s="322"/>
     </row>
     <row r="36" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A36" s="178"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="151"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="112" t="s">
         <v>46</v>
       </c>
@@ -7440,155 +7441,170 @@
         <f>G35/5</f>
         <v>78.75</v>
       </c>
-      <c r="H36" s="182" t="str">
+      <c r="H36" s="181" t="str">
         <f t="shared" si="0"/>
         <v>(Baik)</v>
       </c>
-      <c r="I36" s="321"/>
-      <c r="J36" s="322"/>
+      <c r="I36" s="335"/>
+      <c r="J36" s="336"/>
     </row>
     <row r="37" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A37" s="178"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="154"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="153"/>
       <c r="E37" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="183" t="s">
+      <c r="F37" s="182" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="116">
         <f>G36</f>
         <v>78.75</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="323">
+      <c r="I37" s="337">
         <f>G37*40%</f>
         <v>31.5</v>
       </c>
-      <c r="J37" s="323"/>
+      <c r="J37" s="337"/>
     </row>
     <row r="38" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A38" s="178"/>
-      <c r="B38" s="315" t="s">
+      <c r="A38" s="177"/>
+      <c r="B38" s="331" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="316"/>
-      <c r="D38" s="316"/>
-      <c r="E38" s="316"/>
-      <c r="F38" s="316"/>
-      <c r="G38" s="316"/>
-      <c r="H38" s="317"/>
-      <c r="I38" s="323">
+      <c r="C38" s="332"/>
+      <c r="D38" s="332"/>
+      <c r="E38" s="332"/>
+      <c r="F38" s="332"/>
+      <c r="G38" s="332"/>
+      <c r="H38" s="333"/>
+      <c r="I38" s="337">
         <f>I28+I37</f>
         <v>82.25</v>
       </c>
-      <c r="J38" s="323"/>
+      <c r="J38" s="337"/>
     </row>
     <row r="39" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A39" s="178"/>
-      <c r="B39" s="318"/>
-      <c r="C39" s="319"/>
-      <c r="D39" s="319"/>
-      <c r="E39" s="319"/>
-      <c r="F39" s="319"/>
-      <c r="G39" s="319"/>
-      <c r="H39" s="320"/>
-      <c r="I39" s="307" t="str">
+      <c r="A39" s="177"/>
+      <c r="B39" s="321"/>
+      <c r="C39" s="334"/>
+      <c r="D39" s="334"/>
+      <c r="E39" s="334"/>
+      <c r="F39" s="334"/>
+      <c r="G39" s="334"/>
+      <c r="H39" s="322"/>
+      <c r="I39" s="323" t="str">
         <f>IF(I38&lt;=50,"(Buruk)",IF(I38&lt;=60,"(Sedang)",IF(I38&lt;=75,"(Cukup)",IF(I38&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="J39" s="307"/>
+      <c r="J39" s="323"/>
     </row>
     <row r="40" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="187" t="s">
+      <c r="B40" s="186" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="189"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A41" s="178"/>
-      <c r="B41" s="190" t="s">
+      <c r="A41" s="177"/>
+      <c r="B41" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="191"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="190"/>
     </row>
     <row r="42" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A42" s="178"/>
-      <c r="B42" s="192"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="191"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="190"/>
     </row>
     <row r="43" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A43" s="178"/>
-      <c r="B43" s="192"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="191"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="190"/>
     </row>
     <row r="44" spans="1:10" ht="12.95" customHeight="1">
       <c r="A44" s="178"/>
       <c r="B44" s="192"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="191"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.95" customHeight="1">
-      <c r="A45" s="179"/>
-      <c r="B45" s="193"/>
-      <c r="C45" s="194"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="313" t="s">
+      <c r="C44" s="193"/>
+      <c r="D44" s="193"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="329" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="313"/>
-      <c r="H45" s="313"/>
-      <c r="I45" s="313"/>
-      <c r="J45" s="314"/>
-    </row>
+      <c r="G44" s="329"/>
+      <c r="H44" s="329"/>
+      <c r="I44" s="329"/>
+      <c r="J44" s="330"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.95" customHeight="1"/>
     <row r="46" spans="1:10" ht="12.95" customHeight="1"/>
     <row r="47" spans="1:10" ht="12.95" customHeight="1"/>
     <row r="48" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="49" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="B38:H39"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G14:J14"/>
@@ -7600,36 +7616,9 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="B38:H39"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <pageMargins left="1.6" right="0.7" top="0.21875" bottom="0.27" header="0.3" footer="0.15"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7638,7 +7627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
@@ -7657,7 +7646,7 @@
       <c r="B1" s="342"/>
       <c r="C1" s="342"/>
       <c r="D1" s="342"/>
-      <c r="E1" s="170"/>
+      <c r="E1" s="169"/>
     </row>
     <row r="2" spans="1:6" ht="12.95" customHeight="1">
       <c r="A2" s="345"/>
@@ -7703,7 +7692,7 @@
       <c r="B7" s="348"/>
       <c r="C7" s="348"/>
       <c r="D7" s="348"/>
-      <c r="E7" s="170"/>
+      <c r="E7" s="169"/>
     </row>
     <row r="8" spans="1:6" ht="12.95" customHeight="1">
       <c r="A8" s="345"/>
@@ -7728,10 +7717,10 @@
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="12.95" customHeight="1">
-      <c r="A11" s="318"/>
-      <c r="B11" s="319"/>
-      <c r="C11" s="319"/>
-      <c r="D11" s="319"/>
+      <c r="A11" s="321"/>
+      <c r="B11" s="334"/>
+      <c r="C11" s="334"/>
+      <c r="D11" s="334"/>
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="12.95" customHeight="1">
@@ -7750,85 +7739,85 @@
       <c r="B13" s="348"/>
       <c r="C13" s="348"/>
       <c r="D13" s="348"/>
-      <c r="E13" s="170"/>
+      <c r="E13" s="169"/>
     </row>
     <row r="14" spans="1:6" ht="12.95" customHeight="1">
-      <c r="A14" s="318"/>
-      <c r="B14" s="319"/>
-      <c r="C14" s="319"/>
-      <c r="D14" s="319"/>
+      <c r="A14" s="321"/>
+      <c r="B14" s="334"/>
+      <c r="C14" s="334"/>
+      <c r="D14" s="334"/>
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="12.95" customHeight="1">
-      <c r="A15" s="318"/>
-      <c r="B15" s="319"/>
-      <c r="C15" s="319"/>
-      <c r="D15" s="319"/>
+      <c r="A15" s="321"/>
+      <c r="B15" s="334"/>
+      <c r="C15" s="334"/>
+      <c r="D15" s="334"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="12.95" customHeight="1">
-      <c r="A16" s="321"/>
+      <c r="A16" s="335"/>
       <c r="B16" s="338"/>
       <c r="C16" s="338"/>
       <c r="D16" s="338"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174" t="s">
+      <c r="A17" s="171"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="156" t="s">
+      <c r="D17" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="170"/>
+      <c r="E17" s="169"/>
     </row>
     <row r="18" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A18" s="149"/>
+      <c r="A18" s="148"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150" t="s">
+      <c r="C18" s="149"/>
+      <c r="D18" s="149" t="s">
         <v>101</v>
       </c>
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A19" s="171"/>
+      <c r="A19" s="170"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A20" s="149"/>
+      <c r="A20" s="148"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A21" s="149"/>
+      <c r="A21" s="148"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A22" s="149"/>
+      <c r="A22" s="148"/>
       <c r="B22" s="14"/>
       <c r="C22" s="127"/>
-      <c r="D22" s="150" t="str">
+      <c r="D22" s="149" t="str">
         <f>'INPUT DATA'!C10</f>
         <v>Marceau A.F. Haurissa, S.T., M.Eng</v>
       </c>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A23" s="149"/>
+      <c r="A23" s="148"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150" t="str">
+      <c r="C23" s="149"/>
+      <c r="D23" s="149" t="str">
         <f>"NIP. "&amp;'INPUT DATA'!C11&amp;""</f>
         <v>NIP. 196907261992031001</v>
       </c>
@@ -7838,7 +7827,7 @@
       <c r="A24" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="149" t="s">
         <v>124</v>
       </c>
       <c r="C24" s="14"/>
@@ -7850,12 +7839,12 @@
       <c r="B25" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="150"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="14"/>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A26" s="149"/>
+      <c r="A26" s="148"/>
       <c r="B26" s="53" t="s">
         <v>102</v>
       </c>
@@ -7864,39 +7853,39 @@
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A27" s="149"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="14"/>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="10.5" customHeight="1">
-      <c r="A28" s="149"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A29" s="149"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A30" s="149"/>
-      <c r="B30" s="150" t="str">
+      <c r="A30" s="148"/>
+      <c r="B30" s="149" t="str">
         <f>'INPUT DATA'!C4</f>
         <v>Zulkarnaen Hatala, S.T., M.T</v>
       </c>
-      <c r="C30" s="150"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="14"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A31" s="149"/>
-      <c r="B31" s="150" t="str">
+      <c r="A31" s="148"/>
+      <c r="B31" s="149" t="str">
         <f>"NIP. "&amp;'INPUT DATA'!C5&amp;""</f>
         <v>NIP. 197708192008121002</v>
       </c>
@@ -7905,48 +7894,48 @@
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A32" s="149"/>
+      <c r="A32" s="148"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>11</v>
       </c>
-      <c r="D32" s="150" t="s">
+      <c r="D32" s="149" t="s">
         <v>125</v>
       </c>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A33" s="149"/>
+      <c r="A33" s="148"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="150" t="s">
+      <c r="D33" s="149" t="s">
         <v>103</v>
       </c>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A34" s="149"/>
+      <c r="A34" s="148"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A35" s="149"/>
+      <c r="A35" s="148"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A36" s="171"/>
+      <c r="A36" s="170"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" ht="12.95" customHeight="1">
-      <c r="A37" s="171"/>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A37" s="170"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14" t="str">
@@ -7956,10 +7945,10 @@
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="175"/>
+      <c r="A38" s="174"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="153" t="str">
+      <c r="D38" s="152" t="str">
         <f>"NIP. "&amp;'INPUT DATA'!C17&amp;""</f>
         <v>NIP. 196006091988111001</v>
       </c>
@@ -7984,7 +7973,7 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
   </mergeCells>
-  <pageMargins left="1.1299999999999999" right="0.63" top="0.93" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageMargins left="1.1299999999999999" right="0.52083333333333337" top="0.93" bottom="0.625" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>